--- a/biology/Botanique/Chêne_écarlate/Chêne_écarlate.xlsx
+++ b/biology/Botanique/Chêne_écarlate/Chêne_écarlate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_%C3%A9carlate</t>
+          <t>Chêne_écarlate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus coccinea
 Le chêne écarlate (Quercus coccinea) est une espèce de chênes présente au nord-est des États-Unis et au Canada.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_%C3%A9carlate</t>
+          <t>Chêne_écarlate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce chêne se trouve à l'est des États-Unis. Au nord, il est présent du Maine jusqu'au Wisconsin et au sud de la Géorgie à la Louisiane[1]. On le trouve également à l'extrémité sud de la province canadienne de l'Ontario. Il apprécie les terrains secs, sablonneux et les sols acides.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce chêne se trouve à l'est des États-Unis. Au nord, il est présent du Maine jusqu'au Wisconsin et au sud de la Géorgie à la Louisiane. On le trouve également à l'extrémité sud de la province canadienne de l'Ontario. Il apprécie les terrains secs, sablonneux et les sols acides.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_%C3%A9carlate</t>
+          <t>Chêne_écarlate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est régulièrement confondu avec d'autres chênes de la section Lobatae, comme le Chêne rouge d'Amérique, le Chêne des marais ou plus rarement le Chêne noir, dont les feuillages sont assez similaires.
 Il s'agit d'un arbre caduc de taille moyenne à importante pouvant atteindre 20 à 30 mètres de hauteur.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_%C3%A9carlate</t>
+          <t>Chêne_écarlate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est utilisé en ornementation grâce à ses couleurs rouges en automne. Son bois est souvent vendu sous le nom de chêne rouge mais est inférieur en qualité par rapport à ce dernier car l'arbre n'est pas aussi grand et parce que son bois est moins résistant.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_%C3%A9carlate</t>
+          <t>Chêne_écarlate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On lui connaît deux variétés :
 Quercus coccinea var. coccinea ;
